--- a/groups/23-24-Udmurtia/tasks_results/24.01.31.xlsx
+++ b/groups/23-24-Udmurtia/tasks_results/24.01.31.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>№</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>1+, 1-</t>
   </si>
   <si>
     <t>124</t>
@@ -593,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -632,79 +635,85 @@
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
